--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/618ea012289dca19/Documentos/LONDON SCHOOL OF ECONOMICS/ST449 AI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/618ea012289dca19/Documentos/LONDON SCHOOL OF ECONOMICS/ST449 AI/ST449_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{322F8C5F-2EA5-4232-81B9-B41AAA7856C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="8_{322F8C5F-2EA5-4232-81B9-B41AAA7856C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69A10F04-E47E-47CB-B401-F339F158A558}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{ECC9F2C8-206D-4B2B-B4D6-D732F2FE0DAC}"/>
   </bookViews>
   <sheets>
     <sheet name="outputgap" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t>QQYYYY</t>
   </si>
@@ -180,19 +181,146 @@
   </si>
   <si>
     <t>Q42007</t>
+  </si>
+  <si>
+    <t>Q41987</t>
+  </si>
+  <si>
+    <t>Q21987</t>
+  </si>
+  <si>
+    <t>Q41988</t>
+  </si>
+  <si>
+    <t>Q31988</t>
+  </si>
+  <si>
+    <t>Q41989</t>
+  </si>
+  <si>
+    <t>Q11990</t>
+  </si>
+  <si>
+    <t>Q31990</t>
+  </si>
+  <si>
+    <t>Q11991</t>
+  </si>
+  <si>
+    <t>Q31992</t>
+  </si>
+  <si>
+    <t>Q41995</t>
+  </si>
+  <si>
+    <t>Q11994</t>
+  </si>
+  <si>
+    <t>Q31995</t>
+  </si>
+  <si>
+    <t>Q11995</t>
+  </si>
+  <si>
+    <t>Q21996</t>
+  </si>
+  <si>
+    <t>Q41990</t>
+  </si>
+  <si>
+    <t>Q11996</t>
+  </si>
+  <si>
+    <t>Q11987</t>
+  </si>
+  <si>
+    <t>Q31987</t>
+  </si>
+  <si>
+    <t>Q11988</t>
+  </si>
+  <si>
+    <t>Q21988</t>
+  </si>
+  <si>
+    <t>Q41986</t>
+  </si>
+  <si>
+    <t>Q11989</t>
+  </si>
+  <si>
+    <t>Q21989</t>
+  </si>
+  <si>
+    <t>Q31989</t>
+  </si>
+  <si>
+    <t>Q21990</t>
+  </si>
+  <si>
+    <t>Q21991</t>
+  </si>
+  <si>
+    <t>Q31991</t>
+  </si>
+  <si>
+    <t>Q41991</t>
+  </si>
+  <si>
+    <t>Q11992</t>
+  </si>
+  <si>
+    <t>Q21992</t>
+  </si>
+  <si>
+    <t>Q41992</t>
+  </si>
+  <si>
+    <t>Q11993</t>
+  </si>
+  <si>
+    <t>Q21993</t>
+  </si>
+  <si>
+    <t>Q31993</t>
+  </si>
+  <si>
+    <t>Q41993</t>
+  </si>
+  <si>
+    <t>Q21994</t>
+  </si>
+  <si>
+    <t>Q31994</t>
+  </si>
+  <si>
+    <t>Q41994</t>
+  </si>
+  <si>
+    <t>Q21995</t>
+  </si>
+  <si>
+    <t>Q31996</t>
+  </si>
+  <si>
+    <t>Q41996</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,16 +340,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{A666AC82-532E-496B-8F5C-197367D5E849}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -234,6 +366,1098 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.81</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6752754642280934</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.95</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.103959114458565</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="0.00">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69271920322234593</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.18</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.9161936363307159</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.91</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.52</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.2675912491134866</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.67</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-1.89</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-1.7189944169008422</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.71</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.67</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.5709282578535664</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-1.22</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.1935220398541766</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.41</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.78</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.98</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.71737407788182583</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.61</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.23</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.11</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.19947175925528193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E42F-4A3F-B955-DDD5E431E2BC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1784550528"/>
+        <c:axId val="1784550048"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1784550528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1784550048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1784550048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1784550528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>59871</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>87087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>266699</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>184666</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="4" name="Group 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{983E1747-4DAE-D75A-22F4-73E688E2C2DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5938157" y="457201"/>
+          <a:ext cx="5431971" cy="6944694"/>
+          <a:chOff x="4191000" y="125187"/>
+          <a:chExt cx="5431971" cy="6944694"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="2" name="Picture 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83823FE9-77FE-FD7C-40DA-98AD51083240}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect r="85957"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4191000" y="125187"/>
+            <a:ext cx="2062843" cy="6944694"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 2">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{330D7310-3835-40F5-93B6-F2CB8BECECE5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect l="44278" r="32787"/>
+          <a:stretch/>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6253842" y="125187"/>
+            <a:ext cx="3369129" cy="6944694"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>454478</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>454478</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>5443</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{689448F6-5F44-DE40-C42F-4F3CB6B02F07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -553,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA71BE1-3917-41A0-9808-0D5E3B11520C}">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -576,622 +1800,2085 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="B2">
-        <v>232749</v>
-      </c>
-      <c r="C2" s="1">
-        <v>235518.71309999999</v>
+        <v>118136</v>
+      </c>
+      <c r="C2">
+        <v>120274.2616</v>
       </c>
       <c r="D2" s="2">
-        <v>1.19</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>5</v>
+      <c r="A3" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="B3">
-        <v>235998</v>
-      </c>
-      <c r="C3" s="1">
-        <v>239467.17059999998</v>
+        <v>121739</v>
+      </c>
+      <c r="C3">
+        <v>124076.3888</v>
       </c>
       <c r="D3" s="2">
-        <v>1.47</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>6</v>
+      <c r="A4" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="B4">
-        <v>243388</v>
-      </c>
-      <c r="C4" s="1">
-        <v>246211.30080000003</v>
+        <v>127119</v>
+      </c>
+      <c r="C4">
+        <v>130233.4155</v>
       </c>
       <c r="D4" s="2">
-        <v>1.1599999999999999</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>7</v>
+      <c r="A5" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="B5">
-        <v>241270</v>
-      </c>
-      <c r="C5" s="1">
-        <v>243738.98187275662</v>
+        <v>129815</v>
+      </c>
+      <c r="C5">
+        <v>133287.90884388771</v>
       </c>
       <c r="D5" s="2">
-        <v>1.0233273398087608</v>
+        <v>2.6752754642280934</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>8</v>
+      <c r="A6" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="B6">
-        <v>245958</v>
-      </c>
-      <c r="C6" s="1">
-        <v>248319.19680000001</v>
+        <v>133283</v>
+      </c>
+      <c r="C6">
+        <v>137214.84849999999</v>
       </c>
       <c r="D6" s="2">
-        <v>0.96</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>9</v>
+      <c r="A7" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B7">
-        <v>248081</v>
-      </c>
-      <c r="C7" s="1">
-        <v>250586.61809999999</v>
+        <v>136630</v>
+      </c>
+      <c r="C7">
+        <v>141576.00599999999</v>
       </c>
       <c r="D7" s="2">
-        <v>1.01</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>10</v>
+      <c r="A8" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B8">
-        <v>250560</v>
-      </c>
-      <c r="C8" s="1">
-        <v>252965.37600000002</v>
+        <v>140801</v>
+      </c>
+      <c r="C8">
+        <v>145602.31409999999</v>
       </c>
       <c r="D8" s="2">
-        <v>0.96</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>11</v>
+      <c r="A9" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B9">
-        <v>253902</v>
-      </c>
-      <c r="C9" s="1">
-        <v>255830.20902935037</v>
+        <v>144969</v>
+      </c>
+      <c r="C9">
+        <v>149468.77848863945</v>
       </c>
       <c r="D9" s="2">
-        <v>0.75943042171797437</v>
+        <v>3.103959114458565</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>12</v>
+      <c r="A10" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="B10">
-        <v>255903</v>
-      </c>
-      <c r="C10" s="1">
-        <v>257566.3695</v>
+        <v>148623</v>
+      </c>
+      <c r="C10">
+        <v>152204.8143</v>
       </c>
       <c r="D10" s="2">
-        <v>0.65</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>13</v>
+      <c r="A11" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="B11">
-        <v>258404</v>
-      </c>
-      <c r="C11" s="1">
-        <v>260367.87040000001</v>
+        <v>151262</v>
+      </c>
+      <c r="C11">
+        <v>153833.454</v>
       </c>
       <c r="D11" s="2">
-        <v>0.76</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>14</v>
+      <c r="A12" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="B12">
-        <v>261604</v>
-      </c>
-      <c r="C12" s="1">
-        <v>264246.20039999997</v>
+        <v>155370</v>
+      </c>
+      <c r="C12">
+        <v>156752.79300000001</v>
       </c>
       <c r="D12" s="2">
-        <v>1.01</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>15</v>
+      <c r="A13" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
-        <v>267337</v>
-      </c>
-      <c r="C13" s="1">
-        <v>270218.85976861883</v>
+        <v>159376</v>
+      </c>
+      <c r="C13">
+        <v>160480.02815732764</v>
       </c>
       <c r="D13" s="2">
-        <v>1.0779876218476394</v>
+        <v>0.69271920322234593</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>16</v>
+      <c r="A14" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
-        <v>272305</v>
-      </c>
-      <c r="C14" s="1">
-        <v>275300.35499999998</v>
+        <v>163056</v>
+      </c>
+      <c r="C14">
+        <v>162892.94399999999</v>
       </c>
       <c r="D14" s="2">
-        <v>1.1000000000000001</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>17</v>
+      <c r="A15" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="B15">
-        <v>273916</v>
-      </c>
-      <c r="C15" s="1">
-        <v>278326.04759999999</v>
+        <v>166719</v>
+      </c>
+      <c r="C15">
+        <v>165251.87280000001</v>
       </c>
       <c r="D15" s="2">
-        <v>1.61</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>18</v>
+      <c r="A16" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B16">
-        <v>276174</v>
-      </c>
-      <c r="C16" s="1">
-        <v>279929.96640000003</v>
+        <v>170068</v>
+      </c>
+      <c r="C16">
+        <v>168061.19760000001</v>
       </c>
       <c r="D16" s="2">
-        <v>1.36</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>19</v>
+      <c r="A17" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="B17">
-        <v>278357</v>
-      </c>
-      <c r="C17" s="1">
-        <v>281172.73056183039</v>
+        <v>170954</v>
+      </c>
+      <c r="C17">
+        <v>167678.1903309472</v>
       </c>
       <c r="D17" s="2">
-        <v>1.011553710461893</v>
+        <v>-1.9161936363307159</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>20</v>
+      <c r="A18" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B18">
-        <v>282889</v>
-      </c>
-      <c r="C18" s="1">
-        <v>285350.13429999998</v>
+        <v>173192</v>
+      </c>
+      <c r="C18">
+        <v>170161.14</v>
       </c>
       <c r="D18" s="2">
-        <v>0.87</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>21</v>
+      <c r="A19" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="B19">
-        <v>286728</v>
-      </c>
-      <c r="C19" s="1">
-        <v>288907.13280000002</v>
+        <v>175822</v>
+      </c>
+      <c r="C19">
+        <v>172463.79980000001</v>
       </c>
       <c r="D19" s="2">
-        <v>0.76</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>22</v>
+      <c r="A20" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="B20">
-        <v>288166</v>
-      </c>
-      <c r="C20" s="1">
-        <v>289750.913</v>
+        <v>177280</v>
+      </c>
+      <c r="C20">
+        <v>172812.54399999999</v>
       </c>
       <c r="D20" s="2">
-        <v>0.55000000000000004</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>23</v>
+      <c r="A21" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="B21">
-        <v>288352</v>
-      </c>
-      <c r="C21" s="1">
-        <v>290129.04077905254</v>
+        <v>179590</v>
+      </c>
+      <c r="C21">
+        <v>173721.73287571708</v>
       </c>
       <c r="D21" s="2">
-        <v>0.61627482349786167</v>
+        <v>-3.2675912491134866</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>24</v>
+      <c r="A22" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="B22">
-        <v>292486</v>
-      </c>
-      <c r="C22" s="1">
-        <v>293334.20939999999</v>
+        <v>181438</v>
+      </c>
+      <c r="C22">
+        <v>175813.42199999999</v>
       </c>
       <c r="D22" s="2">
-        <v>0.28999999999999998</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>25</v>
+      <c r="A23" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="B23">
-        <v>295516</v>
-      </c>
-      <c r="C23" s="1">
-        <v>295575.10320000001</v>
+        <v>181889</v>
+      </c>
+      <c r="C23">
+        <v>177032.5637</v>
       </c>
       <c r="D23" s="2">
-        <v>0.02</v>
+        <v>-2.67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>26</v>
+      <c r="A24" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B24">
-        <v>299230</v>
-      </c>
-      <c r="C24" s="1">
-        <v>299529.23</v>
+        <v>182558</v>
+      </c>
+      <c r="C24">
+        <v>179107.6538</v>
       </c>
       <c r="D24" s="2">
-        <v>0.1</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>27</v>
+      <c r="A25" s="3" t="s">
+        <v>78</v>
       </c>
       <c r="B25">
-        <v>304207</v>
-      </c>
-      <c r="C25" s="1">
-        <v>303854.85061899206</v>
+        <v>184989</v>
+      </c>
+      <c r="C25">
+        <v>181809.04941811931</v>
       </c>
       <c r="D25" s="2">
-        <v>-0.11575978889634991</v>
+        <v>-1.7189944169008422</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>28</v>
+      <c r="A26" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B26">
-        <v>307485</v>
-      </c>
-      <c r="C26" s="1">
-        <v>307607.99400000001</v>
+        <v>189580</v>
+      </c>
+      <c r="C26">
+        <v>186357.14</v>
       </c>
       <c r="D26" s="2">
-        <v>0.04</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>29</v>
+      <c r="A27" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="B27">
-        <v>312948</v>
-      </c>
-      <c r="C27" s="1">
-        <v>313323.53760000004</v>
+        <v>189802</v>
+      </c>
+      <c r="C27">
+        <v>186556.38579999999</v>
       </c>
       <c r="D27" s="2">
-        <v>0.12</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>30</v>
+      <c r="A28" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B28">
-        <v>317463</v>
-      </c>
-      <c r="C28" s="1">
-        <v>318955.07610000001</v>
+        <v>193552</v>
+      </c>
+      <c r="C28">
+        <v>190319.68160000001</v>
       </c>
       <c r="D28" s="2">
-        <v>0.47</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>31</v>
+      <c r="A29" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="B29">
-        <v>320438</v>
-      </c>
-      <c r="C29" s="1">
-        <v>323339.10005372472</v>
+        <v>196921</v>
+      </c>
+      <c r="C29">
+        <v>193827.51236535219</v>
       </c>
       <c r="D29" s="2">
-        <v>0.9053545627312406</v>
+        <v>-1.5709282578535664</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>32</v>
+      <c r="A30" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B30">
-        <v>322778</v>
-      </c>
-      <c r="C30" s="1">
-        <v>325521.61300000001</v>
+        <v>199796</v>
+      </c>
+      <c r="C30">
+        <v>197358.48879999999</v>
       </c>
       <c r="D30" s="2">
-        <v>0.85</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>33</v>
+      <c r="A31" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="B31">
-        <v>329732</v>
-      </c>
-      <c r="C31" s="1">
-        <v>331248.7672</v>
+        <v>200691</v>
+      </c>
+      <c r="C31">
+        <v>199868.16690000001</v>
       </c>
       <c r="D31" s="2">
-        <v>0.46</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>34</v>
+      <c r="A32" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="B32">
-        <v>331592</v>
-      </c>
-      <c r="C32" s="1">
-        <v>332222.02480000001</v>
+        <v>203292</v>
+      </c>
+      <c r="C32">
+        <v>203312.32920000001</v>
       </c>
       <c r="D32" s="2">
-        <v>0.19</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>35</v>
+      <c r="A33" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="B33">
-        <v>338535</v>
-      </c>
-      <c r="C33" s="1">
-        <v>339995.32200458582</v>
+        <v>207015</v>
+      </c>
+      <c r="C33">
+        <v>206614.38034919588</v>
       </c>
       <c r="D33" s="2">
-        <v>0.43136514823748451</v>
+        <v>-0.1935220398541766</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>36</v>
+      <c r="A34" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B34">
-        <v>341254</v>
-      </c>
-      <c r="C34" s="1">
-        <v>342516.6398</v>
+        <v>208657</v>
+      </c>
+      <c r="C34">
+        <v>207801.50630000001</v>
       </c>
       <c r="D34" s="2">
-        <v>0.37</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>37</v>
+      <c r="A35" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="B35">
-        <v>348491</v>
-      </c>
-      <c r="C35" s="1">
-        <v>349571.32210000005</v>
+        <v>210748</v>
+      </c>
+      <c r="C35">
+        <v>209104.16560000001</v>
       </c>
       <c r="D35" s="2">
-        <v>0.31</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>38</v>
+      <c r="A36" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B36">
-        <v>352001</v>
-      </c>
-      <c r="C36" s="1">
-        <v>352775.40220000001</v>
+        <v>214616</v>
+      </c>
+      <c r="C36">
+        <v>212512.76319999999</v>
       </c>
       <c r="D36" s="2">
-        <v>0.22</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>39</v>
+      <c r="A37" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B37">
-        <v>357003</v>
-      </c>
-      <c r="C37" s="1">
-        <v>358330.23183917499</v>
+        <v>217824</v>
+      </c>
+      <c r="C37">
+        <v>216261.3870885947</v>
       </c>
       <c r="D37" s="2">
-        <v>0.37177050029690162</v>
+        <v>-0.71737407788182583</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>40</v>
+      <c r="A38" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="B38">
-        <v>361213</v>
-      </c>
-      <c r="C38" s="1">
-        <v>361971.54729999998</v>
+        <v>221433</v>
+      </c>
+      <c r="C38">
+        <v>220082.25870000001</v>
       </c>
       <c r="D38" s="2">
-        <v>0.21</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>41</v>
+      <c r="A39" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B39">
-        <v>367042</v>
-      </c>
-      <c r="C39" s="1">
-        <v>366711.66220000002</v>
+        <v>226187</v>
+      </c>
+      <c r="C39">
+        <v>225666.76990000001</v>
       </c>
       <c r="D39" s="2">
-        <v>-0.09</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>42</v>
+      <c r="A40" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B40">
-        <v>370883</v>
-      </c>
-      <c r="C40" s="1">
-        <v>370823.65872000001</v>
+        <v>229912</v>
+      </c>
+      <c r="C40">
+        <v>229659.0968</v>
       </c>
       <c r="D40" s="2">
-        <v>-1.6E-2</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>43</v>
+      <c r="A41" s="3" t="s">
+        <v>88</v>
       </c>
       <c r="B41">
-        <v>372900</v>
-      </c>
-      <c r="C41" s="1">
-        <v>372629.29826319136</v>
+        <v>232461</v>
+      </c>
+      <c r="C41">
+        <v>232924.69404628241</v>
       </c>
       <c r="D41" s="2">
-        <v>-7.2593654279599754E-2</v>
+        <v>0.19947175925528193</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="B42">
-        <v>376958</v>
+        <v>232749</v>
       </c>
       <c r="C42" s="1">
-        <v>378201.96140000003</v>
+        <v>235518.71309999999</v>
       </c>
       <c r="D42" s="2">
-        <v>0.33</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="B43">
-        <v>386144</v>
+        <v>235998</v>
       </c>
       <c r="C43" s="1">
-        <v>387920.26239999995</v>
+        <v>239467.17059999998</v>
       </c>
       <c r="D43" s="2">
-        <v>0.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="B44">
-        <v>389291</v>
+        <v>243388</v>
       </c>
       <c r="C44" s="1">
-        <v>392366.39890000003</v>
+        <v>246211.30080000003</v>
       </c>
       <c r="D44" s="2">
-        <v>0.79</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>241270</v>
+      </c>
+      <c r="C45" s="1">
+        <v>243738.98187275662</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1.0233273398087608</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46">
+        <v>245958</v>
+      </c>
+      <c r="C46" s="1">
+        <v>248319.19680000001</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47">
+        <v>248081</v>
+      </c>
+      <c r="C47" s="1">
+        <v>250586.61809999999</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>250560</v>
+      </c>
+      <c r="C48" s="1">
+        <v>252965.37600000002</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49">
+        <v>253902</v>
+      </c>
+      <c r="C49" s="1">
+        <v>255830.20902935037</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.75943042171797437</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>255903</v>
+      </c>
+      <c r="C50" s="1">
+        <v>257566.3695</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>258404</v>
+      </c>
+      <c r="C51" s="1">
+        <v>260367.87040000001</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>261604</v>
+      </c>
+      <c r="C52" s="1">
+        <v>264246.20039999997</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53">
+        <v>267337</v>
+      </c>
+      <c r="C53" s="1">
+        <v>270218.85976861883</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1.0779876218476394</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>16</v>
+      </c>
+      <c r="B54">
+        <v>272305</v>
+      </c>
+      <c r="C54" s="1">
+        <v>275300.35499999998</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55">
+        <v>273916</v>
+      </c>
+      <c r="C55" s="1">
+        <v>278326.04759999999</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1.61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56">
+        <v>276174</v>
+      </c>
+      <c r="C56" s="1">
+        <v>279929.96640000003</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57">
+        <v>278357</v>
+      </c>
+      <c r="C57" s="1">
+        <v>281172.73056183039</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.011553710461893</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>20</v>
+      </c>
+      <c r="B58">
+        <v>282889</v>
+      </c>
+      <c r="C58" s="1">
+        <v>285350.13429999998</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59">
+        <v>286728</v>
+      </c>
+      <c r="C59" s="1">
+        <v>288907.13280000002</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>288166</v>
+      </c>
+      <c r="C60" s="1">
+        <v>289750.913</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>23</v>
+      </c>
+      <c r="B61">
+        <v>288352</v>
+      </c>
+      <c r="C61" s="1">
+        <v>290129.04077905254</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.61627482349786167</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>24</v>
+      </c>
+      <c r="B62">
+        <v>292486</v>
+      </c>
+      <c r="C62" s="1">
+        <v>293334.20939999999</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63">
+        <v>295516</v>
+      </c>
+      <c r="C63" s="1">
+        <v>295575.10320000001</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64">
+        <v>299230</v>
+      </c>
+      <c r="C64" s="1">
+        <v>299529.23</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>27</v>
+      </c>
+      <c r="B65">
+        <v>304207</v>
+      </c>
+      <c r="C65" s="1">
+        <v>303854.85061899206</v>
+      </c>
+      <c r="D65" s="2">
+        <v>-0.11575978889634991</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66">
+        <v>307485</v>
+      </c>
+      <c r="C66" s="1">
+        <v>307607.99400000001</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B67">
+        <v>312948</v>
+      </c>
+      <c r="C67" s="1">
+        <v>313323.53760000004</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68">
+        <v>317463</v>
+      </c>
+      <c r="C68" s="1">
+        <v>318955.07610000001</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69">
+        <v>320438</v>
+      </c>
+      <c r="C69" s="1">
+        <v>323339.10005372472</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.9053545627312406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B70">
+        <v>322778</v>
+      </c>
+      <c r="C70" s="1">
+        <v>325521.61300000001</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>33</v>
+      </c>
+      <c r="B71">
+        <v>329732</v>
+      </c>
+      <c r="C71" s="1">
+        <v>331248.7672</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>34</v>
+      </c>
+      <c r="B72">
+        <v>331592</v>
+      </c>
+      <c r="C72" s="1">
+        <v>332222.02480000001</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>35</v>
+      </c>
+      <c r="B73">
+        <v>338535</v>
+      </c>
+      <c r="C73" s="1">
+        <v>339995.32200458582</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.43136514823748451</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>36</v>
+      </c>
+      <c r="B74">
+        <v>341254</v>
+      </c>
+      <c r="C74" s="1">
+        <v>342516.6398</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>37</v>
+      </c>
+      <c r="B75">
+        <v>348491</v>
+      </c>
+      <c r="C75" s="1">
+        <v>349571.32210000005</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76">
+        <v>352001</v>
+      </c>
+      <c r="C76" s="1">
+        <v>352775.40220000001</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>39</v>
+      </c>
+      <c r="B77">
+        <v>357003</v>
+      </c>
+      <c r="C77" s="1">
+        <v>358330.23183917499</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.37177050029690162</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78">
+        <v>361213</v>
+      </c>
+      <c r="C78" s="1">
+        <v>361971.54729999998</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>41</v>
+      </c>
+      <c r="B79">
+        <v>367042</v>
+      </c>
+      <c r="C79" s="1">
+        <v>366711.66220000002</v>
+      </c>
+      <c r="D79" s="2">
+        <v>-0.09</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>42</v>
+      </c>
+      <c r="B80">
+        <v>370883</v>
+      </c>
+      <c r="C80" s="1">
+        <v>370823.65872000001</v>
+      </c>
+      <c r="D80" s="2">
+        <v>-1.6E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81">
+        <v>372900</v>
+      </c>
+      <c r="C81" s="1">
+        <v>372629.29826319136</v>
+      </c>
+      <c r="D81" s="2">
+        <v>-7.2593654279599754E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>44</v>
+      </c>
+      <c r="B82">
+        <v>376958</v>
+      </c>
+      <c r="C82" s="1">
+        <v>378201.96140000003</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83">
+        <v>386144</v>
+      </c>
+      <c r="C83" s="1">
+        <v>387920.26239999995</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84">
+        <v>389291</v>
+      </c>
+      <c r="C84" s="1">
+        <v>392366.39890000003</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
         <v>47</v>
       </c>
-      <c r="B45">
+      <c r="B85">
         <v>392244</v>
       </c>
-      <c r="C45" s="1">
+      <c r="C85" s="1">
         <v>396777.01635386521</v>
       </c>
-      <c r="D45" s="2">
+      <c r="D85" s="2">
         <v>1.155662382054333</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4872DA-D4B8-43B2-954A-9FCFD1A64CA1}">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B42" sqref="B3:B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3">
+        <v>115779</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4">
+        <v>1.81</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3">
+        <v>118136</v>
+      </c>
+      <c r="G3">
+        <f>F3+H3/100*F3</f>
+        <v>120274.2616</v>
+      </c>
+      <c r="H3">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4">
+        <v>1.92</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3">
+        <v>121739</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G43" si="0">F4+H4/100*F4</f>
+        <v>124076.3888</v>
+      </c>
+      <c r="H4">
+        <v>1.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>127119</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>130233.4155</v>
+      </c>
+      <c r="H5">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6">
+        <v>2.2138188660570233</v>
+      </c>
+      <c r="D6" s="4">
+        <f>C6*4-SUM(D3:D5)</f>
+        <v>2.6752754642280934</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>129815</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>133287.90884388771</v>
+      </c>
+      <c r="H6">
+        <v>2.6752754642280934</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4">
+        <v>2.95</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>133283</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>137214.84849999999</v>
+      </c>
+      <c r="H7">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4">
+        <v>3.62</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>136630</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>141576.00599999999</v>
+      </c>
+      <c r="H8">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="4">
+        <v>3.41</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>140801</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>145602.31409999999</v>
+      </c>
+      <c r="H9">
+        <v>3.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>3.2709897786146414</v>
+      </c>
+      <c r="D10" s="4">
+        <f>C10*4-SUM(D7:D9)</f>
+        <v>3.103959114458565</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>144969</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>149468.77848863945</v>
+      </c>
+      <c r="H10">
+        <v>3.103959114458565</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4">
+        <v>2.41</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>148623</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>152204.8143</v>
+      </c>
+      <c r="H11">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>151262</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>153833.454</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>155370</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>156752.79300000001</v>
+      </c>
+      <c r="H13">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14">
+        <v>1.4231798008055865</v>
+      </c>
+      <c r="D14" s="4">
+        <f>C14*4-SUM(D11:D13)</f>
+        <v>0.69271920322234593</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <v>159376</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>160480.02815732764</v>
+      </c>
+      <c r="H14">
+        <v>0.69271920322234593</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="4">
+        <v>-0.1</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <v>163056</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>162892.94399999999</v>
+      </c>
+      <c r="H15">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="4">
+        <v>-0.88</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>166719</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>165251.87280000001</v>
+      </c>
+      <c r="H16">
+        <v>-0.88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="4">
+        <v>-1.18</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <v>170068</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>168061.19760000001</v>
+      </c>
+      <c r="H17">
+        <v>-1.18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18">
+        <v>-1.019048409082679</v>
+      </c>
+      <c r="D18" s="4">
+        <f>C18*4-SUM(D15:D17)</f>
+        <v>-1.9161936363307159</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <v>170954</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>167678.1903309472</v>
+      </c>
+      <c r="H18">
+        <v>-1.9161936363307159</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4">
+        <v>-1.75</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
+        <v>173192</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>170161.14</v>
+      </c>
+      <c r="H19">
+        <v>-1.75</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4">
+        <v>-1.91</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <v>175822</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>172463.79980000001</v>
+      </c>
+      <c r="H20">
+        <v>-1.91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4">
+        <v>-2.52</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <v>177280</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>172812.54399999999</v>
+      </c>
+      <c r="H21">
+        <v>-2.52</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <v>-2.3618978122783716</v>
+      </c>
+      <c r="D22" s="4">
+        <f>C22*4-SUM(D19:D21)</f>
+        <v>-3.2675912491134866</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
+        <v>179590</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>173721.73287571708</v>
+      </c>
+      <c r="H22">
+        <v>-3.2675912491134866</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4">
+        <v>-3.1</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <v>181438</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>175813.42199999999</v>
+      </c>
+      <c r="H23">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B24" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4">
+        <v>-2.67</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <v>181889</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>177032.5637</v>
+      </c>
+      <c r="H24">
+        <v>-2.67</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25">
+        <v>-1.89</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>182558</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>179107.6538</v>
+      </c>
+      <c r="H25">
+        <v>-1.89</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26">
+        <v>-2.3447486042252104</v>
+      </c>
+      <c r="D26" s="4">
+        <f>C26*4-SUM(D23:D25)</f>
+        <v>-1.7189944169008422</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <v>184989</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>181809.04941811931</v>
+      </c>
+      <c r="H26">
+        <v>-1.7189944169008422</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4">
+        <v>-1.7</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
+        <v>189580</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>186357.14</v>
+      </c>
+      <c r="H27">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4">
+        <v>-1.71</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <v>189802</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>186556.38579999999</v>
+      </c>
+      <c r="H28">
+        <v>-1.71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="4">
+        <v>-1.67</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <v>193552</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>190319.68160000001</v>
+      </c>
+      <c r="H29">
+        <v>-1.67</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B30" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30">
+        <v>-1.6627320644633916</v>
+      </c>
+      <c r="D30" s="4">
+        <f>C30*4-SUM(D27:D29)</f>
+        <v>-1.5709282578535664</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3">
+        <v>196921</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>193827.51236535219</v>
+      </c>
+      <c r="H30">
+        <v>-1.5709282578535664</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4">
+        <v>-1.22</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3">
+        <v>199796</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="0"/>
+        <v>197358.48879999999</v>
+      </c>
+      <c r="H31">
+        <v>-1.22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4">
+        <v>-0.41</v>
+      </c>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3">
+        <v>200691</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="0"/>
+        <v>199868.16690000001</v>
+      </c>
+      <c r="H32">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B33" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3">
+        <v>203292</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>203312.32920000001</v>
+      </c>
+      <c r="H33">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34">
+        <v>-0.45338050996354412</v>
+      </c>
+      <c r="D34" s="4">
+        <f>C34*4-SUM(D31:D33)</f>
+        <v>-0.1935220398541766</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3">
+        <v>207015</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>206614.38034919588</v>
+      </c>
+      <c r="H34">
+        <v>-0.1935220398541766</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B35" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="4">
+        <v>-0.41</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3">
+        <v>208657</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>207801.50630000001</v>
+      </c>
+      <c r="H35">
+        <v>-0.41</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B36" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D36" s="4">
+        <v>-0.78</v>
+      </c>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3">
+        <v>210748</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>209104.16560000001</v>
+      </c>
+      <c r="H36">
+        <v>-0.78</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B37" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4">
+        <v>-0.98</v>
+      </c>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3">
+        <v>214616</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>212512.76319999999</v>
+      </c>
+      <c r="H37">
+        <v>-0.98</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>-0.72184351947045644</v>
+      </c>
+      <c r="D38" s="4">
+        <f>C38*4-SUM(D35:D37)</f>
+        <v>-0.71737407788182583</v>
+      </c>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3">
+        <v>217824</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>216261.3870885947</v>
+      </c>
+      <c r="H38">
+        <v>-0.71737407788182583</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4">
+        <v>-0.61</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3">
+        <v>221433</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>220082.25870000001</v>
+      </c>
+      <c r="H39">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B40" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4">
+        <v>-0.23</v>
+      </c>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3">
+        <v>226187</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>225666.76990000001</v>
+      </c>
+      <c r="H40">
+        <v>-0.23</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4">
+        <v>-0.11</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3">
+        <v>229912</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>229659.0968</v>
+      </c>
+      <c r="H41">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B42" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42">
+        <v>-0.18763206018617951</v>
+      </c>
+      <c r="D42" s="4">
+        <f>C42*4-SUM(D39:D41)</f>
+        <v>0.19947175925528193</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3">
+        <v>232461</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>232924.69404628241</v>
+      </c>
+      <c r="H42">
+        <v>0.19947175925528193</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3">
+        <v>232749</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>232749</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/outputgap.xlsx
+++ b/outputgap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/618ea012289dca19/Documentos/LONDON SCHOOL OF ECONOMICS/ST449 AI/ST449_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{322F8C5F-2EA5-4232-81B9-B41AAA7856C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69A10F04-E47E-47CB-B401-F339F158A558}"/>
+  <xr:revisionPtr revIDLastSave="179" documentId="8_{322F8C5F-2EA5-4232-81B9-B41AAA7856C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E01950A6-B75B-4F3E-9ADE-DCD1741FF73C}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{ECC9F2C8-206D-4B2B-B4D6-D732F2FE0DAC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="89">
   <si>
     <t>QQYYYY</t>
   </si>
@@ -1777,10 +1777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA71BE1-3917-41A0-9808-0D5E3B11520C}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1801,629 +1801,629 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B2">
-        <v>118136</v>
+        <v>127119</v>
       </c>
       <c r="C2">
-        <v>120274.2616</v>
+        <v>130233.4155</v>
       </c>
       <c r="D2" s="2">
-        <v>1.81</v>
+        <v>2.4500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B3">
-        <v>121739</v>
+        <v>129815</v>
       </c>
       <c r="C3">
-        <v>124076.3888</v>
+        <v>133287.90884388771</v>
       </c>
       <c r="D3" s="2">
-        <v>1.92</v>
+        <v>2.6752754642280934</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4">
-        <v>127119</v>
+        <v>133283</v>
       </c>
       <c r="C4">
-        <v>130233.4155</v>
+        <v>137214.84849999999</v>
       </c>
       <c r="D4" s="2">
-        <v>2.4500000000000002</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="B5">
-        <v>129815</v>
+        <v>136630</v>
       </c>
       <c r="C5">
-        <v>133287.90884388771</v>
+        <v>141576.00599999999</v>
       </c>
       <c r="D5" s="2">
-        <v>2.6752754642280934</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B6">
-        <v>133283</v>
+        <v>140801</v>
       </c>
       <c r="C6">
-        <v>137214.84849999999</v>
+        <v>145602.31409999999</v>
       </c>
       <c r="D6" s="2">
-        <v>2.95</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>136630</v>
+        <v>144969</v>
       </c>
       <c r="C7">
-        <v>141576.00599999999</v>
+        <v>149468.77848863945</v>
       </c>
       <c r="D7" s="2">
-        <v>3.62</v>
+        <v>3.103959114458565</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="B8">
-        <v>140801</v>
+        <v>148623</v>
       </c>
       <c r="C8">
-        <v>145602.31409999999</v>
+        <v>152204.8143</v>
       </c>
       <c r="D8" s="2">
-        <v>3.41</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B9">
-        <v>144969</v>
+        <v>151262</v>
       </c>
       <c r="C9">
-        <v>149468.77848863945</v>
+        <v>153833.454</v>
       </c>
       <c r="D9" s="2">
-        <v>3.103959114458565</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B10">
-        <v>148623</v>
+        <v>155370</v>
       </c>
       <c r="C10">
-        <v>152204.8143</v>
+        <v>156752.79300000001</v>
       </c>
       <c r="D10" s="2">
-        <v>2.41</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="3" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B11">
-        <v>151262</v>
+        <v>159376</v>
       </c>
       <c r="C11">
-        <v>153833.454</v>
+        <v>160480.02815732764</v>
       </c>
       <c r="D11" s="2">
-        <v>1.7</v>
+        <v>0.69271920322234593</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="3" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="B12">
-        <v>155370</v>
+        <v>163056</v>
       </c>
       <c r="C12">
-        <v>156752.79300000001</v>
+        <v>162892.94399999999</v>
       </c>
       <c r="D12" s="2">
-        <v>0.89</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B13">
-        <v>159376</v>
+        <v>166719</v>
       </c>
       <c r="C13">
-        <v>160480.02815732764</v>
+        <v>165251.87280000001</v>
       </c>
       <c r="D13" s="2">
-        <v>0.69271920322234593</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B14">
-        <v>163056</v>
+        <v>170068</v>
       </c>
       <c r="C14">
-        <v>162892.94399999999</v>
+        <v>168061.19760000001</v>
       </c>
       <c r="D14" s="2">
-        <v>-0.1</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B15">
-        <v>166719</v>
+        <v>170954</v>
       </c>
       <c r="C15">
-        <v>165251.87280000001</v>
+        <v>167678.1903309472</v>
       </c>
       <c r="D15" s="2">
-        <v>-0.88</v>
+        <v>-1.9161936363307159</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16">
-        <v>170068</v>
+        <v>173192</v>
       </c>
       <c r="C16">
-        <v>168061.19760000001</v>
+        <v>170161.14</v>
       </c>
       <c r="D16" s="2">
-        <v>-1.18</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B17">
-        <v>170954</v>
+        <v>175822</v>
       </c>
       <c r="C17">
-        <v>167678.1903309472</v>
+        <v>172463.79980000001</v>
       </c>
       <c r="D17" s="2">
-        <v>-1.9161936363307159</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B18">
-        <v>173192</v>
+        <v>177280</v>
       </c>
       <c r="C18">
-        <v>170161.14</v>
+        <v>172812.54399999999</v>
       </c>
       <c r="D18" s="2">
-        <v>-1.75</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B19">
-        <v>175822</v>
+        <v>179590</v>
       </c>
       <c r="C19">
-        <v>172463.79980000001</v>
+        <v>173721.73287571708</v>
       </c>
       <c r="D19" s="2">
-        <v>-1.91</v>
+        <v>-3.2675912491134866</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20">
-        <v>177280</v>
+        <v>181438</v>
       </c>
       <c r="C20">
-        <v>172812.54399999999</v>
+        <v>175813.42199999999</v>
       </c>
       <c r="D20" s="2">
-        <v>-2.52</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B21">
-        <v>179590</v>
+        <v>181889</v>
       </c>
       <c r="C21">
-        <v>173721.73287571708</v>
+        <v>177032.5637</v>
       </c>
       <c r="D21" s="2">
-        <v>-3.2675912491134866</v>
+        <v>-2.67</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
       <c r="B22">
-        <v>181438</v>
+        <v>182558</v>
       </c>
       <c r="C22">
-        <v>175813.42199999999</v>
+        <v>179107.6538</v>
       </c>
       <c r="D22" s="2">
-        <v>-3.1</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23">
-        <v>181889</v>
+        <v>184989</v>
       </c>
       <c r="C23">
-        <v>177032.5637</v>
+        <v>181809.04941811931</v>
       </c>
       <c r="D23" s="2">
-        <v>-2.67</v>
+        <v>-1.7189944169008422</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="3" t="s">
-        <v>56</v>
+        <v>79</v>
       </c>
       <c r="B24">
-        <v>182558</v>
+        <v>189580</v>
       </c>
       <c r="C24">
-        <v>179107.6538</v>
+        <v>186357.14</v>
       </c>
       <c r="D24" s="2">
-        <v>-1.89</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B25">
-        <v>184989</v>
+        <v>189802</v>
       </c>
       <c r="C25">
-        <v>181809.04941811931</v>
+        <v>186556.38579999999</v>
       </c>
       <c r="D25" s="2">
-        <v>-1.7189944169008422</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B26">
-        <v>189580</v>
+        <v>193552</v>
       </c>
       <c r="C26">
-        <v>186357.14</v>
+        <v>190319.68160000001</v>
       </c>
       <c r="D26" s="2">
-        <v>-1.7</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B27">
-        <v>189802</v>
+        <v>196921</v>
       </c>
       <c r="C27">
-        <v>186556.38579999999</v>
+        <v>193827.51236535219</v>
       </c>
       <c r="D27" s="2">
-        <v>-1.71</v>
+        <v>-1.5709282578535664</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
       </c>
       <c r="B28">
-        <v>193552</v>
+        <v>199796</v>
       </c>
       <c r="C28">
-        <v>190319.68160000001</v>
+        <v>197358.48879999999</v>
       </c>
       <c r="D28" s="2">
-        <v>-1.67</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29">
-        <v>196921</v>
+        <v>200691</v>
       </c>
       <c r="C29">
-        <v>193827.51236535219</v>
+        <v>199868.16690000001</v>
       </c>
       <c r="D29" s="2">
-        <v>-1.5709282578535664</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="3" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B30">
-        <v>199796</v>
+        <v>203292</v>
       </c>
       <c r="C30">
-        <v>197358.48879999999</v>
+        <v>203312.32920000001</v>
       </c>
       <c r="D30" s="2">
-        <v>-1.22</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B31">
-        <v>200691</v>
+        <v>207015</v>
       </c>
       <c r="C31">
-        <v>199868.16690000001</v>
+        <v>206614.38034919588</v>
       </c>
       <c r="D31" s="2">
-        <v>-0.41</v>
+        <v>-0.1935220398541766</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="B32">
-        <v>203292</v>
+        <v>208657</v>
       </c>
       <c r="C32">
-        <v>203312.32920000001</v>
+        <v>207801.50630000001</v>
       </c>
       <c r="D32" s="2">
-        <v>0.01</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B33">
-        <v>207015</v>
+        <v>210748</v>
       </c>
       <c r="C33">
-        <v>206614.38034919588</v>
+        <v>209104.16560000001</v>
       </c>
       <c r="D33" s="2">
-        <v>-0.1935220398541766</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B34">
-        <v>208657</v>
+        <v>214616</v>
       </c>
       <c r="C34">
-        <v>207801.50630000001</v>
+        <v>212512.76319999999</v>
       </c>
       <c r="D34" s="2">
-        <v>-0.41</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="3" t="s">
-        <v>86</v>
+        <v>57</v>
       </c>
       <c r="B35">
-        <v>210748</v>
+        <v>217824</v>
       </c>
       <c r="C35">
-        <v>209104.16560000001</v>
+        <v>216261.3870885947</v>
       </c>
       <c r="D35" s="2">
-        <v>-0.78</v>
+        <v>-0.71737407788182583</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B36">
-        <v>214616</v>
+        <v>221433</v>
       </c>
       <c r="C36">
-        <v>212512.76319999999</v>
+        <v>220082.25870000001</v>
       </c>
       <c r="D36" s="2">
-        <v>-0.98</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B37">
-        <v>217824</v>
+        <v>226187</v>
       </c>
       <c r="C37">
-        <v>216261.3870885947</v>
+        <v>225666.76990000001</v>
       </c>
       <c r="D37" s="2">
-        <v>-0.71737407788182583</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="B38">
-        <v>221433</v>
+        <v>229912</v>
       </c>
       <c r="C38">
-        <v>220082.25870000001</v>
+        <v>229659.0968</v>
       </c>
       <c r="D38" s="2">
-        <v>-0.61</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="3" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B39">
-        <v>226187</v>
+        <v>232461</v>
       </c>
       <c r="C39">
-        <v>225666.76990000001</v>
+        <v>232924.69404628241</v>
       </c>
       <c r="D39" s="2">
-        <v>-0.23</v>
+        <v>0.19947175925528193</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A40" s="3" t="s">
-        <v>87</v>
+      <c r="A40" t="s">
+        <v>4</v>
       </c>
       <c r="B40">
-        <v>229912</v>
-      </c>
-      <c r="C40">
-        <v>229659.0968</v>
+        <v>232749</v>
+      </c>
+      <c r="C40" s="1">
+        <v>235518.71309999999</v>
       </c>
       <c r="D40" s="2">
-        <v>-0.11</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A41" s="3" t="s">
-        <v>88</v>
+      <c r="A41" t="s">
+        <v>5</v>
       </c>
       <c r="B41">
-        <v>232461</v>
-      </c>
-      <c r="C41">
-        <v>232924.69404628241</v>
+        <v>235998</v>
+      </c>
+      <c r="C41" s="1">
+        <v>239467.17059999998</v>
       </c>
       <c r="D41" s="2">
-        <v>0.19947175925528193</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B42">
-        <v>232749</v>
+        <v>243388</v>
       </c>
       <c r="C42" s="1">
-        <v>235518.71309999999</v>
+        <v>246211.30080000003</v>
       </c>
       <c r="D42" s="2">
-        <v>1.19</v>
+        <v>1.1599999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B43">
-        <v>235998</v>
+        <v>241270</v>
       </c>
       <c r="C43" s="1">
-        <v>239467.17059999998</v>
+        <v>243738.98187275662</v>
       </c>
       <c r="D43" s="2">
-        <v>1.47</v>
+        <v>1.0233273398087608</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B44">
-        <v>243388</v>
+        <v>245958</v>
       </c>
       <c r="C44" s="1">
-        <v>246211.30080000003</v>
+        <v>248319.19680000001</v>
       </c>
       <c r="D44" s="2">
-        <v>1.1599999999999999</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B45">
-        <v>241270</v>
+        <v>248081</v>
       </c>
       <c r="C45" s="1">
-        <v>243738.98187275662</v>
+        <v>250586.61809999999</v>
       </c>
       <c r="D45" s="2">
-        <v>1.0233273398087608</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B46">
-        <v>245958</v>
+        <v>250560</v>
       </c>
       <c r="C46" s="1">
-        <v>248319.19680000001</v>
+        <v>252965.37600000002</v>
       </c>
       <c r="D46" s="2">
         <v>0.96</v>
@@ -2431,547 +2431,519 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B47">
-        <v>248081</v>
+        <v>253902</v>
       </c>
       <c r="C47" s="1">
-        <v>250586.61809999999</v>
+        <v>255830.20902935037</v>
       </c>
       <c r="D47" s="2">
-        <v>1.01</v>
+        <v>0.75943042171797437</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B48">
-        <v>250560</v>
+        <v>255903</v>
       </c>
       <c r="C48" s="1">
-        <v>252965.37600000002</v>
+        <v>257566.3695</v>
       </c>
       <c r="D48" s="2">
-        <v>0.96</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B49">
-        <v>253902</v>
+        <v>258404</v>
       </c>
       <c r="C49" s="1">
-        <v>255830.20902935037</v>
+        <v>260367.87040000001</v>
       </c>
       <c r="D49" s="2">
-        <v>0.75943042171797437</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B50">
-        <v>255903</v>
+        <v>261604</v>
       </c>
       <c r="C50" s="1">
-        <v>257566.3695</v>
+        <v>264246.20039999997</v>
       </c>
       <c r="D50" s="2">
-        <v>0.65</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B51">
-        <v>258404</v>
+        <v>267337</v>
       </c>
       <c r="C51" s="1">
-        <v>260367.87040000001</v>
+        <v>270218.85976861883</v>
       </c>
       <c r="D51" s="2">
-        <v>0.76</v>
+        <v>1.0779876218476394</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B52">
-        <v>261604</v>
+        <v>272305</v>
       </c>
       <c r="C52" s="1">
-        <v>264246.20039999997</v>
+        <v>275300.35499999998</v>
       </c>
       <c r="D52" s="2">
-        <v>1.01</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B53">
-        <v>267337</v>
+        <v>273916</v>
       </c>
       <c r="C53" s="1">
-        <v>270218.85976861883</v>
+        <v>278326.04759999999</v>
       </c>
       <c r="D53" s="2">
-        <v>1.0779876218476394</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B54">
-        <v>272305</v>
+        <v>276174</v>
       </c>
       <c r="C54" s="1">
-        <v>275300.35499999998</v>
+        <v>279929.96640000003</v>
       </c>
       <c r="D54" s="2">
-        <v>1.1000000000000001</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B55">
-        <v>273916</v>
+        <v>278357</v>
       </c>
       <c r="C55" s="1">
-        <v>278326.04759999999</v>
+        <v>281172.73056183039</v>
       </c>
       <c r="D55" s="2">
-        <v>1.61</v>
+        <v>1.011553710461893</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B56">
-        <v>276174</v>
+        <v>282889</v>
       </c>
       <c r="C56" s="1">
-        <v>279929.96640000003</v>
+        <v>285350.13429999998</v>
       </c>
       <c r="D56" s="2">
-        <v>1.36</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B57">
-        <v>278357</v>
+        <v>286728</v>
       </c>
       <c r="C57" s="1">
-        <v>281172.73056183039</v>
+        <v>288907.13280000002</v>
       </c>
       <c r="D57" s="2">
-        <v>1.011553710461893</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B58">
-        <v>282889</v>
+        <v>288166</v>
       </c>
       <c r="C58" s="1">
-        <v>285350.13429999998</v>
+        <v>289750.913</v>
       </c>
       <c r="D58" s="2">
-        <v>0.87</v>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B59">
-        <v>286728</v>
+        <v>288352</v>
       </c>
       <c r="C59" s="1">
-        <v>288907.13280000002</v>
+        <v>290129.04077905254</v>
       </c>
       <c r="D59" s="2">
-        <v>0.76</v>
+        <v>0.61627482349786167</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B60">
-        <v>288166</v>
+        <v>292486</v>
       </c>
       <c r="C60" s="1">
-        <v>289750.913</v>
+        <v>293334.20939999999</v>
       </c>
       <c r="D60" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B61">
-        <v>288352</v>
+        <v>295516</v>
       </c>
       <c r="C61" s="1">
-        <v>290129.04077905254</v>
+        <v>295575.10320000001</v>
       </c>
       <c r="D61" s="2">
-        <v>0.61627482349786167</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B62">
-        <v>292486</v>
+        <v>299230</v>
       </c>
       <c r="C62" s="1">
-        <v>293334.20939999999</v>
+        <v>299529.23</v>
       </c>
       <c r="D62" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B63">
-        <v>295516</v>
+        <v>304207</v>
       </c>
       <c r="C63" s="1">
-        <v>295575.10320000001</v>
+        <v>303854.85061899206</v>
       </c>
       <c r="D63" s="2">
-        <v>0.02</v>
+        <v>-0.11575978889634991</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B64">
-        <v>299230</v>
+        <v>307485</v>
       </c>
       <c r="C64" s="1">
-        <v>299529.23</v>
+        <v>307607.99400000001</v>
       </c>
       <c r="D64" s="2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B65">
-        <v>304207</v>
+        <v>312948</v>
       </c>
       <c r="C65" s="1">
-        <v>303854.85061899206</v>
+        <v>313323.53760000004</v>
       </c>
       <c r="D65" s="2">
-        <v>-0.11575978889634991</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B66">
-        <v>307485</v>
+        <v>317463</v>
       </c>
       <c r="C66" s="1">
-        <v>307607.99400000001</v>
+        <v>318955.07610000001</v>
       </c>
       <c r="D66" s="2">
-        <v>0.04</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B67">
-        <v>312948</v>
+        <v>320438</v>
       </c>
       <c r="C67" s="1">
-        <v>313323.53760000004</v>
+        <v>323339.10005372472</v>
       </c>
       <c r="D67" s="2">
-        <v>0.12</v>
+        <v>0.9053545627312406</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B68">
-        <v>317463</v>
+        <v>322778</v>
       </c>
       <c r="C68" s="1">
-        <v>318955.07610000001</v>
+        <v>325521.61300000001</v>
       </c>
       <c r="D68" s="2">
-        <v>0.47</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B69">
-        <v>320438</v>
+        <v>329732</v>
       </c>
       <c r="C69" s="1">
-        <v>323339.10005372472</v>
+        <v>331248.7672</v>
       </c>
       <c r="D69" s="2">
-        <v>0.9053545627312406</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B70">
-        <v>322778</v>
+        <v>331592</v>
       </c>
       <c r="C70" s="1">
-        <v>325521.61300000001</v>
+        <v>332222.02480000001</v>
       </c>
       <c r="D70" s="2">
-        <v>0.85</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B71">
-        <v>329732</v>
+        <v>338535</v>
       </c>
       <c r="C71" s="1">
-        <v>331248.7672</v>
+        <v>339995.32200458582</v>
       </c>
       <c r="D71" s="2">
-        <v>0.46</v>
+        <v>0.43136514823748451</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B72">
-        <v>331592</v>
+        <v>341254</v>
       </c>
       <c r="C72" s="1">
-        <v>332222.02480000001</v>
+        <v>342516.6398</v>
       </c>
       <c r="D72" s="2">
-        <v>0.19</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B73">
-        <v>338535</v>
+        <v>348491</v>
       </c>
       <c r="C73" s="1">
-        <v>339995.32200458582</v>
+        <v>349571.32210000005</v>
       </c>
       <c r="D73" s="2">
-        <v>0.43136514823748451</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B74">
-        <v>341254</v>
+        <v>352001</v>
       </c>
       <c r="C74" s="1">
-        <v>342516.6398</v>
+        <v>352775.40220000001</v>
       </c>
       <c r="D74" s="2">
-        <v>0.37</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B75">
-        <v>348491</v>
+        <v>357003</v>
       </c>
       <c r="C75" s="1">
-        <v>349571.32210000005</v>
+        <v>358330.23183917499</v>
       </c>
       <c r="D75" s="2">
-        <v>0.31</v>
+        <v>0.37177050029690162</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B76">
-        <v>352001</v>
+        <v>361213</v>
       </c>
       <c r="C76" s="1">
-        <v>352775.40220000001</v>
+        <v>361971.54729999998</v>
       </c>
       <c r="D76" s="2">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B77">
-        <v>357003</v>
+        <v>367042</v>
       </c>
       <c r="C77" s="1">
-        <v>358330.23183917499</v>
+        <v>366711.66220000002</v>
       </c>
       <c r="D77" s="2">
-        <v>0.37177050029690162</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B78">
-        <v>361213</v>
+        <v>370883</v>
       </c>
       <c r="C78" s="1">
-        <v>361971.54729999998</v>
+        <v>370823.65872000001</v>
       </c>
       <c r="D78" s="2">
-        <v>0.21</v>
+        <v>-1.6E-2</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B79">
-        <v>367042</v>
+        <v>372900</v>
       </c>
       <c r="C79" s="1">
-        <v>366711.66220000002</v>
+        <v>372629.29826319136</v>
       </c>
       <c r="D79" s="2">
-        <v>-0.09</v>
+        <v>-7.2593654279599754E-2</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B80">
-        <v>370883</v>
+        <v>376958</v>
       </c>
       <c r="C80" s="1">
-        <v>370823.65872000001</v>
+        <v>378201.96140000003</v>
       </c>
       <c r="D80" s="2">
-        <v>-1.6E-2</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B81">
-        <v>372900</v>
+        <v>386144</v>
       </c>
       <c r="C81" s="1">
-        <v>372629.29826319136</v>
+        <v>387920.26239999995</v>
       </c>
       <c r="D81" s="2">
-        <v>-7.2593654279599754E-2</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B82">
-        <v>376958</v>
+        <v>389291</v>
       </c>
       <c r="C82" s="1">
-        <v>378201.96140000003</v>
+        <v>392366.39890000003</v>
       </c>
       <c r="D82" s="2">
-        <v>0.33</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B83">
-        <v>386144</v>
+        <v>392244</v>
       </c>
       <c r="C83" s="1">
-        <v>387920.26239999995</v>
+        <v>396777.01635386521</v>
       </c>
       <c r="D83" s="2">
-        <v>0.46</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>46</v>
-      </c>
-      <c r="B84">
-        <v>389291</v>
-      </c>
-      <c r="C84" s="1">
-        <v>392366.39890000003</v>
-      </c>
-      <c r="D84" s="2">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>47</v>
-      </c>
-      <c r="B85">
-        <v>392244</v>
-      </c>
-      <c r="C85" s="1">
-        <v>396777.01635386521</v>
-      </c>
-      <c r="D85" s="2">
         <v>1.155662382054333</v>
       </c>
     </row>
